--- a/02_src/data/Wind_data/Wind数据.xlsx
+++ b/02_src/data/Wind_data/Wind数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\21221\申万宏源证券实习\Backtest_Simulation_of_Dynamic_Hedge\Backtest_Simulation_of_Dynamic_Hedge\02_src\data\Wind_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA8180-B661-4D56-9A2F-5403AA0F07F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42468EE0-1E8C-4E38-9020-117ADD24A9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="1" xr2:uid="{9719ADE1-8687-41DC-B5B6-0649542650CB}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="2" xr2:uid="{9719ADE1-8687-41DC-B5B6-0649542650CB}"/>
   </bookViews>
   <sheets>
     <sheet name="交易日" sheetId="2" r:id="rId1"/>
@@ -33,33 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>何金泽</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0EA77FAA-4829-4812-B6B8-B305978969AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>000959.SZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +47,14 @@
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>300180.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600808.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +78,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6473,10 +6448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CACB8C4-9D7E-4915-BB4F-301D81ECBF1F}">
-  <dimension ref="A1:B227"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -6486,1820 +6461,3182 @@
     <col min="3" max="3" width="8.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44200</v>
       </c>
       <c r="B2">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <v>5.94</v>
+      </c>
+      <c r="D2">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44201</v>
       </c>
       <c r="B3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>5.88</v>
+      </c>
+      <c r="D3">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44202</v>
       </c>
       <c r="B4">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <v>5.8</v>
+      </c>
+      <c r="D4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44203</v>
       </c>
       <c r="B5">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <v>6.25</v>
+      </c>
+      <c r="D5">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44204</v>
       </c>
       <c r="B6">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>6.08</v>
+      </c>
+      <c r="D6">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44207</v>
       </c>
       <c r="B7">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <v>6.31</v>
+      </c>
+      <c r="D7">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44208</v>
       </c>
       <c r="B8">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>6.05</v>
+      </c>
+      <c r="D8">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44209</v>
       </c>
       <c r="B9">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>5.97</v>
+      </c>
+      <c r="D9">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44210</v>
       </c>
       <c r="B10">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>5.82</v>
+      </c>
+      <c r="D10">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44211</v>
       </c>
       <c r="B11">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>5.91</v>
+      </c>
+      <c r="D11">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44214</v>
       </c>
       <c r="B12">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>5.93</v>
+      </c>
+      <c r="D12">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44215</v>
       </c>
       <c r="B13">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>6.08</v>
+      </c>
+      <c r="D13">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44216</v>
       </c>
       <c r="B14">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>6.17</v>
+      </c>
+      <c r="D14">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44217</v>
       </c>
       <c r="B15">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>6.17</v>
+      </c>
+      <c r="D15">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44218</v>
       </c>
       <c r="B16">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>6.13</v>
+      </c>
+      <c r="D16">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44221</v>
       </c>
       <c r="B17">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>6.09</v>
+      </c>
+      <c r="D17">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44222</v>
       </c>
       <c r="B18">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>6.01</v>
+      </c>
+      <c r="D18">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44223</v>
       </c>
       <c r="B19">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>5.9</v>
+      </c>
+      <c r="D19">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44224</v>
       </c>
       <c r="B20">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>5.84</v>
+      </c>
+      <c r="D20">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44225</v>
       </c>
       <c r="B21">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>5.71</v>
+      </c>
+      <c r="D21">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44228</v>
       </c>
       <c r="B22">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>5.25</v>
+      </c>
+      <c r="D22">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44229</v>
       </c>
       <c r="B23">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>5.14</v>
+      </c>
+      <c r="D23">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44230</v>
       </c>
       <c r="B24">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>5.07</v>
+      </c>
+      <c r="D24">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44231</v>
       </c>
       <c r="B25">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>5.15</v>
+      </c>
+      <c r="D25">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44232</v>
       </c>
       <c r="B26">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D26">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44235</v>
       </c>
       <c r="B27">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>5.05</v>
+      </c>
+      <c r="D27">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44236</v>
       </c>
       <c r="B28">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>5.16</v>
+      </c>
+      <c r="D28">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44237</v>
       </c>
       <c r="B29">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>5.26</v>
+      </c>
+      <c r="D29">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44245</v>
       </c>
       <c r="B30">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>5.33</v>
+      </c>
+      <c r="D30">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44246</v>
       </c>
       <c r="B31">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <v>5.57</v>
+      </c>
+      <c r="D31">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44249</v>
       </c>
       <c r="B32">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <v>6.31</v>
+      </c>
+      <c r="D32">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44250</v>
       </c>
       <c r="B33">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <v>6.35</v>
+      </c>
+      <c r="D33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44251</v>
       </c>
       <c r="B34">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <v>6.34</v>
+      </c>
+      <c r="D34">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44252</v>
       </c>
       <c r="B35">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35">
+        <v>6.29</v>
+      </c>
+      <c r="D35">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44253</v>
       </c>
       <c r="B36">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <v>6.29</v>
+      </c>
+      <c r="D36">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44256</v>
       </c>
       <c r="B37">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37">
+        <v>6.08</v>
+      </c>
+      <c r="D37">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44257</v>
       </c>
       <c r="B38">
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38">
+        <v>6.46</v>
+      </c>
+      <c r="D38">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44258</v>
       </c>
       <c r="B39">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <v>6.28</v>
+      </c>
+      <c r="D39">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44259</v>
       </c>
       <c r="B40">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40">
+        <v>6.2</v>
+      </c>
+      <c r="D40">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44260</v>
       </c>
       <c r="B41">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41">
+        <v>6.09</v>
+      </c>
+      <c r="D41">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44263</v>
       </c>
       <c r="B42">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42">
+        <v>6.34</v>
+      </c>
+      <c r="D42">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44264</v>
       </c>
       <c r="B43">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <v>6.2</v>
+      </c>
+      <c r="D43">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44265</v>
       </c>
       <c r="B44">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44">
+        <v>6.11</v>
+      </c>
+      <c r="D44">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44266</v>
       </c>
       <c r="B45">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <v>5.99</v>
+      </c>
+      <c r="D45">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44267</v>
       </c>
       <c r="B46">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <v>6.02</v>
+      </c>
+      <c r="D46">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44270</v>
       </c>
       <c r="B47">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <v>5.91</v>
+      </c>
+      <c r="D47">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44271</v>
       </c>
       <c r="B48">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <v>5.93</v>
+      </c>
+      <c r="D48">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44272</v>
       </c>
       <c r="B49">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <v>5.94</v>
+      </c>
+      <c r="D49">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44273</v>
       </c>
       <c r="B50">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <v>6.59</v>
+      </c>
+      <c r="D50">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44274</v>
       </c>
       <c r="B51">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <v>6.47</v>
+      </c>
+      <c r="D51">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44277</v>
       </c>
       <c r="B52">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <v>6.32</v>
+      </c>
+      <c r="D52">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44278</v>
       </c>
       <c r="B53">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <v>6.26</v>
+      </c>
+      <c r="D53">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44279</v>
       </c>
       <c r="B54">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54">
+        <v>6.16</v>
+      </c>
+      <c r="D54">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44280</v>
       </c>
       <c r="B55">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55">
+        <v>6.07</v>
+      </c>
+      <c r="D55">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44281</v>
       </c>
       <c r="B56">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <v>6.09</v>
+      </c>
+      <c r="D56">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44284</v>
       </c>
       <c r="B57">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57">
+        <v>5.97</v>
+      </c>
+      <c r="D57">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44285</v>
       </c>
       <c r="B58">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58">
+        <v>5.81</v>
+      </c>
+      <c r="D58">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44286</v>
       </c>
       <c r="B59">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <v>5.7</v>
+      </c>
+      <c r="D59">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44287</v>
       </c>
       <c r="B60">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60">
+        <v>5.75</v>
+      </c>
+      <c r="D60">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44288</v>
       </c>
       <c r="B61">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <v>5.82</v>
+      </c>
+      <c r="D61">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44292</v>
       </c>
       <c r="B62">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <v>5.72</v>
+      </c>
+      <c r="D62">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44293</v>
       </c>
       <c r="B63">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <v>5.78</v>
+      </c>
+      <c r="D63">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44294</v>
       </c>
       <c r="B64">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <v>5.66</v>
+      </c>
+      <c r="D64">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44295</v>
       </c>
       <c r="B65">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65">
+        <v>5.8</v>
+      </c>
+      <c r="D65">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44298</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66">
+        <v>5.7</v>
+      </c>
+      <c r="D66">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44299</v>
       </c>
       <c r="B67">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67">
+        <v>5.65</v>
+      </c>
+      <c r="D67">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44300</v>
       </c>
       <c r="B68">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68">
+        <v>5.73</v>
+      </c>
+      <c r="D68">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44301</v>
       </c>
       <c r="B69">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69">
+        <v>5.64</v>
+      </c>
+      <c r="D69">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44302</v>
       </c>
       <c r="B70">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70">
+        <v>5.54</v>
+      </c>
+      <c r="D70">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44305</v>
       </c>
       <c r="B71">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71">
+        <v>5.73</v>
+      </c>
+      <c r="D71">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44306</v>
       </c>
       <c r="B72">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72">
+        <v>5.8</v>
+      </c>
+      <c r="D72">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44307</v>
       </c>
       <c r="B73">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73">
+        <v>5.78</v>
+      </c>
+      <c r="D73">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44308</v>
       </c>
       <c r="B74">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74">
+        <v>5.65</v>
+      </c>
+      <c r="D74">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44309</v>
       </c>
       <c r="B75">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75">
+        <v>5.68</v>
+      </c>
+      <c r="D75">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44312</v>
       </c>
       <c r="B76">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76">
+        <v>5.63</v>
+      </c>
+      <c r="D76">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44313</v>
       </c>
       <c r="B77">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77">
+        <v>5.6</v>
+      </c>
+      <c r="D77">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44314</v>
       </c>
       <c r="B78">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78">
+        <v>5.5</v>
+      </c>
+      <c r="D78">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44315</v>
       </c>
       <c r="B79">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79">
+        <v>5.52</v>
+      </c>
+      <c r="D79">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44316</v>
       </c>
       <c r="B80">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80">
+        <v>5.48</v>
+      </c>
+      <c r="D80">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44322</v>
       </c>
       <c r="B81">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81">
+        <v>5.5</v>
+      </c>
+      <c r="D81">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44323</v>
       </c>
       <c r="B82">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82">
+        <v>5.47</v>
+      </c>
+      <c r="D82">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44326</v>
       </c>
       <c r="B83">
         <v>5.82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83">
+        <v>5.55</v>
+      </c>
+      <c r="D83">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44327</v>
       </c>
       <c r="B84">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84">
+        <v>5.73</v>
+      </c>
+      <c r="D84">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44328</v>
       </c>
       <c r="B85">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85">
+        <v>5.65</v>
+      </c>
+      <c r="D85">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44329</v>
       </c>
       <c r="B86">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86">
+        <v>5.51</v>
+      </c>
+      <c r="D86">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44330</v>
       </c>
       <c r="B87">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87">
+        <v>5.46</v>
+      </c>
+      <c r="D87">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44333</v>
       </c>
       <c r="B88">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88">
+        <v>5.46</v>
+      </c>
+      <c r="D88">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44334</v>
       </c>
       <c r="B89">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89">
+        <v>5.36</v>
+      </c>
+      <c r="D89">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44335</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90">
+        <v>5.49</v>
+      </c>
+      <c r="D90">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44336</v>
       </c>
       <c r="B91">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91">
+        <v>5.38</v>
+      </c>
+      <c r="D91">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44337</v>
       </c>
       <c r="B92">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92">
+        <v>5.35</v>
+      </c>
+      <c r="D92">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44340</v>
       </c>
       <c r="B93">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93">
+        <v>5.31</v>
+      </c>
+      <c r="D93">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>44341</v>
       </c>
       <c r="B94">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94">
+        <v>5.31</v>
+      </c>
+      <c r="D94">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>44342</v>
       </c>
       <c r="B95">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95">
+        <v>5.29</v>
+      </c>
+      <c r="D95">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>44343</v>
       </c>
       <c r="B96">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96">
+        <v>5.33</v>
+      </c>
+      <c r="D96">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>44344</v>
       </c>
       <c r="B97">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97">
+        <v>5.37</v>
+      </c>
+      <c r="D97">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>44347</v>
       </c>
       <c r="B98">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98">
+        <v>5.28</v>
+      </c>
+      <c r="D98">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>44348</v>
       </c>
       <c r="B99">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99">
+        <v>5.26</v>
+      </c>
+      <c r="D99">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>44349</v>
       </c>
       <c r="B100">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100">
+        <v>5.25</v>
+      </c>
+      <c r="D100">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>44350</v>
       </c>
       <c r="B101">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101">
+        <v>5.18</v>
+      </c>
+      <c r="D101">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>44351</v>
       </c>
       <c r="B102">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102">
+        <v>5.18</v>
+      </c>
+      <c r="D102">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>44354</v>
       </c>
       <c r="B103">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103">
+        <v>5.08</v>
+      </c>
+      <c r="D103">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>44355</v>
       </c>
       <c r="B104">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104">
+        <v>5.14</v>
+      </c>
+      <c r="D104">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>44356</v>
       </c>
       <c r="B105">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105">
+        <v>5.09</v>
+      </c>
+      <c r="D105">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>44357</v>
       </c>
       <c r="B106">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106">
+        <v>5.24</v>
+      </c>
+      <c r="D106">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>44358</v>
       </c>
       <c r="B107">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107">
+        <v>5.13</v>
+      </c>
+      <c r="D107">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>44362</v>
       </c>
       <c r="B108">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108">
+        <v>5.25</v>
+      </c>
+      <c r="D108">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>44363</v>
       </c>
       <c r="B109">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109">
+        <v>5.12</v>
+      </c>
+      <c r="D109">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>44364</v>
       </c>
       <c r="B110">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110">
+        <v>4.88</v>
+      </c>
+      <c r="D110">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>44365</v>
       </c>
       <c r="B111">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D111">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>44368</v>
       </c>
       <c r="B112">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112">
+        <v>4.93</v>
+      </c>
+      <c r="D112">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>44369</v>
       </c>
       <c r="B113">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D113">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>44370</v>
       </c>
       <c r="B114">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D114">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>44371</v>
       </c>
       <c r="B115">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115">
+        <v>4.99</v>
+      </c>
+      <c r="D115">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>44372</v>
       </c>
       <c r="B116">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116">
+        <v>4.96</v>
+      </c>
+      <c r="D116">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>44375</v>
       </c>
       <c r="B117">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117">
+        <v>5.07</v>
+      </c>
+      <c r="D117">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>44376</v>
       </c>
       <c r="B118">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D118">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>44377</v>
       </c>
       <c r="B119">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119">
+        <v>4.93</v>
+      </c>
+      <c r="D119">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>44378</v>
       </c>
       <c r="B120">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120">
+        <v>4.95</v>
+      </c>
+      <c r="D120">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>44379</v>
       </c>
       <c r="B121">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121">
+        <v>4.84</v>
+      </c>
+      <c r="D121">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>44382</v>
       </c>
       <c r="B122">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D122">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>44383</v>
       </c>
       <c r="B123">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123">
+        <v>4.91</v>
+      </c>
+      <c r="D123">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>44384</v>
       </c>
       <c r="B124">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124">
+        <v>4.88</v>
+      </c>
+      <c r="D124">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>44385</v>
       </c>
       <c r="B125">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125">
+        <v>4.88</v>
+      </c>
+      <c r="D125">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>44386</v>
       </c>
       <c r="B126">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C126">
+        <v>4.83</v>
+      </c>
+      <c r="D126">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>44389</v>
       </c>
       <c r="B127">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D127">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>44390</v>
       </c>
       <c r="B128">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C128">
+        <v>5.08</v>
+      </c>
+      <c r="D128">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>44391</v>
       </c>
       <c r="B129">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C129">
+        <v>5.15</v>
+      </c>
+      <c r="D129">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>44392</v>
       </c>
       <c r="B130">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C130">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D130">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>44393</v>
       </c>
       <c r="B131">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C131">
+        <v>5.04</v>
+      </c>
+      <c r="D131">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>44396</v>
       </c>
       <c r="B132">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C132">
+        <v>5.04</v>
+      </c>
+      <c r="D132">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>44397</v>
       </c>
       <c r="B133">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C133">
+        <v>5.17</v>
+      </c>
+      <c r="D133">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>44398</v>
       </c>
       <c r="B134">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134">
+        <v>5.23</v>
+      </c>
+      <c r="D134">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>44399</v>
       </c>
       <c r="B135">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C135">
+        <v>5.24</v>
+      </c>
+      <c r="D135">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>44400</v>
       </c>
       <c r="B136">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C136">
+        <v>5.32</v>
+      </c>
+      <c r="D136">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>44403</v>
       </c>
       <c r="B137">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C137">
+        <v>5.59</v>
+      </c>
+      <c r="D137">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>44404</v>
       </c>
       <c r="B138">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C138">
+        <v>5.27</v>
+      </c>
+      <c r="D138">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>44405</v>
       </c>
       <c r="B139">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C139">
+        <v>5.04</v>
+      </c>
+      <c r="D139">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>44406</v>
       </c>
       <c r="B140">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C140">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D140">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>44407</v>
       </c>
       <c r="B141">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C141">
+        <v>5.13</v>
+      </c>
+      <c r="D141">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>44410</v>
       </c>
       <c r="B142">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C142">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D142">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>44411</v>
       </c>
       <c r="B143">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C143">
+        <v>5.14</v>
+      </c>
+      <c r="D143">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>44412</v>
       </c>
       <c r="B144">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C144">
+        <v>5.12</v>
+      </c>
+      <c r="D144">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>44413</v>
       </c>
       <c r="B145">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C145">
+        <v>5.14</v>
+      </c>
+      <c r="D145">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>44414</v>
       </c>
       <c r="B146">
         <v>6.27</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C146">
+        <v>5.31</v>
+      </c>
+      <c r="D146">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>44417</v>
       </c>
       <c r="B147">
         <v>6.36</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C147">
+        <v>5.26</v>
+      </c>
+      <c r="D147">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>44418</v>
       </c>
       <c r="B148">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C148">
+        <v>5.32</v>
+      </c>
+      <c r="D148">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>44419</v>
       </c>
       <c r="B149">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C149">
+        <v>5.33</v>
+      </c>
+      <c r="D149">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>44420</v>
       </c>
       <c r="B150">
         <v>7.05</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C150">
+        <v>5.39</v>
+      </c>
+      <c r="D150">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>44421</v>
       </c>
       <c r="B151">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C151">
+        <v>5.45</v>
+      </c>
+      <c r="D151">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>44424</v>
       </c>
       <c r="B152">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C152">
+        <v>5.62</v>
+      </c>
+      <c r="D152">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>44425</v>
       </c>
       <c r="B153">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C153">
+        <v>5.63</v>
+      </c>
+      <c r="D153">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>44426</v>
       </c>
       <c r="B154">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C154">
+        <v>5.41</v>
+      </c>
+      <c r="D154">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>44427</v>
       </c>
       <c r="B155">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C155">
+        <v>5.43</v>
+      </c>
+      <c r="D155">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>44428</v>
       </c>
       <c r="B156">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C156">
+        <v>5.39</v>
+      </c>
+      <c r="D156">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>44431</v>
       </c>
       <c r="B157">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157">
+        <v>5.44</v>
+      </c>
+      <c r="D157">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>44432</v>
       </c>
       <c r="B158">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158">
+        <v>5.6</v>
+      </c>
+      <c r="D158">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>44433</v>
       </c>
       <c r="B159">
         <v>7.54</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159">
+        <v>5.68</v>
+      </c>
+      <c r="D159">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>44434</v>
       </c>
       <c r="B160">
         <v>7.77</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160">
+        <v>5.55</v>
+      </c>
+      <c r="D160">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>44435</v>
       </c>
       <c r="B161">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161">
+        <v>5.47</v>
+      </c>
+      <c r="D161">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>44438</v>
       </c>
       <c r="B162">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162">
+        <v>5.39</v>
+      </c>
+      <c r="D162">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>44439</v>
       </c>
       <c r="B163">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163">
+        <v>5.35</v>
+      </c>
+      <c r="D163">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>44440</v>
       </c>
       <c r="B164">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164">
+        <v>5.33</v>
+      </c>
+      <c r="D164">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>44441</v>
       </c>
       <c r="B165">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165">
+        <v>5.43</v>
+      </c>
+      <c r="D165">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>44442</v>
       </c>
       <c r="B166">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166">
+        <v>5.72</v>
+      </c>
+      <c r="D166">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>44445</v>
       </c>
       <c r="B167">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167">
+        <v>5.72</v>
+      </c>
+      <c r="D167">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>44446</v>
       </c>
       <c r="B168">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168">
+        <v>5.66</v>
+      </c>
+      <c r="D168">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>44447</v>
       </c>
       <c r="B169">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169">
+        <v>5.71</v>
+      </c>
+      <c r="D169">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>44448</v>
       </c>
       <c r="B170">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170">
+        <v>5.86</v>
+      </c>
+      <c r="D170">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>44449</v>
       </c>
       <c r="B171">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171">
+        <v>5.73</v>
+      </c>
+      <c r="D171">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>44452</v>
       </c>
       <c r="B172">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172">
+        <v>5.67</v>
+      </c>
+      <c r="D172">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>44453</v>
       </c>
       <c r="B173">
         <v>9.9600000000000009</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173">
+        <v>5.9</v>
+      </c>
+      <c r="D173">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>44454</v>
       </c>
       <c r="B174">
         <v>9.02</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174">
+        <v>5.8</v>
+      </c>
+      <c r="D174">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>44455</v>
       </c>
       <c r="B175">
         <v>9.07</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175">
+        <v>5.82</v>
+      </c>
+      <c r="D175">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>44456</v>
       </c>
       <c r="B176">
         <v>8.9700000000000006</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176">
+        <v>5.65</v>
+      </c>
+      <c r="D176">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>44461</v>
       </c>
       <c r="B177">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C177">
+        <v>5.67</v>
+      </c>
+      <c r="D177">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>44462</v>
       </c>
       <c r="B178">
         <v>8.65</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C178">
+        <v>5.55</v>
+      </c>
+      <c r="D178">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>44463</v>
       </c>
       <c r="B179">
         <v>8.31</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C179">
+        <v>5.66</v>
+      </c>
+      <c r="D179">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>44466</v>
       </c>
       <c r="B180">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C180">
+        <v>5.4</v>
+      </c>
+      <c r="D180">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>44467</v>
       </c>
       <c r="B181">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C181">
+        <v>5.09</v>
+      </c>
+      <c r="D181">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>44468</v>
       </c>
       <c r="B182">
         <v>7.46</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C182">
+        <v>5.04</v>
+      </c>
+      <c r="D182">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>44469</v>
       </c>
       <c r="B183">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C183">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D183">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>44477</v>
       </c>
       <c r="B184">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C184">
+        <v>5.01</v>
+      </c>
+      <c r="D184">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>44480</v>
       </c>
       <c r="B185">
         <v>7.32</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C185">
+        <v>5.07</v>
+      </c>
+      <c r="D185">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>44481</v>
       </c>
       <c r="B186">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C186">
+        <v>5.04</v>
+      </c>
+      <c r="D186">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>44482</v>
       </c>
       <c r="B187">
         <v>6.76</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C187">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D187">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>44483</v>
       </c>
       <c r="B188">
         <v>6.64</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C188">
+        <v>4.99</v>
+      </c>
+      <c r="D188">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>44484</v>
       </c>
       <c r="B189">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C189">
+        <v>4.97</v>
+      </c>
+      <c r="D189">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>44487</v>
       </c>
       <c r="B190">
         <v>6.53</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C190">
+        <v>4.91</v>
+      </c>
+      <c r="D190">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>44488</v>
       </c>
       <c r="B191">
         <v>6.62</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C191">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D191">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>44489</v>
       </c>
       <c r="B192">
         <v>6.62</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C192">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D192">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>44490</v>
       </c>
       <c r="B193">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C193">
+        <v>4.84</v>
+      </c>
+      <c r="D193">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>44491</v>
       </c>
       <c r="B194">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C194">
+        <v>4.79</v>
+      </c>
+      <c r="D194">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>44494</v>
       </c>
       <c r="B195">
         <v>6.09</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C195">
+        <v>4.67</v>
+      </c>
+      <c r="D195">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>44495</v>
       </c>
       <c r="B196">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C196">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D196">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>44496</v>
       </c>
       <c r="B197">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C197">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D197">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>44497</v>
       </c>
       <c r="B198">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C198">
+        <v>4.47</v>
+      </c>
+      <c r="D198">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>44498</v>
       </c>
       <c r="B199">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C199">
+        <v>4.43</v>
+      </c>
+      <c r="D199">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>44501</v>
       </c>
       <c r="B200">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C200">
+        <v>4.5</v>
+      </c>
+      <c r="D200">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>44502</v>
       </c>
       <c r="B201">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C201">
+        <v>4.63</v>
+      </c>
+      <c r="D201">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>44503</v>
       </c>
       <c r="B202">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C202">
+        <v>4.55</v>
+      </c>
+      <c r="D202">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>44504</v>
       </c>
       <c r="B203">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C203">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D203">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>44505</v>
       </c>
       <c r="B204">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C204">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D204">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>44508</v>
       </c>
       <c r="B205">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C205">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D205">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>44509</v>
       </c>
       <c r="B206">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C206">
+        <v>4.66</v>
+      </c>
+      <c r="D206">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>44510</v>
       </c>
       <c r="B207">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C207">
+        <v>4.88</v>
+      </c>
+      <c r="D207">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>44511</v>
       </c>
       <c r="B208">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208">
+        <v>4.83</v>
+      </c>
+      <c r="D208">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>44512</v>
       </c>
       <c r="B209">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209">
+        <v>4.88</v>
+      </c>
+      <c r="D209">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>44515</v>
       </c>
       <c r="B210">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D210">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>44516</v>
       </c>
       <c r="B211">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211">
+        <v>4.99</v>
+      </c>
+      <c r="D211">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>44517</v>
       </c>
       <c r="B212">
         <v>5.31</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212">
+        <v>4.95</v>
+      </c>
+      <c r="D212">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>44518</v>
       </c>
       <c r="B213">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D213">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>44519</v>
       </c>
       <c r="B214">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D214">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>44522</v>
       </c>
       <c r="B215">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D215">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>44523</v>
       </c>
       <c r="B216">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D216">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>44524</v>
       </c>
       <c r="B217">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217">
+        <v>4.83</v>
+      </c>
+      <c r="D217">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>44525</v>
       </c>
       <c r="B218">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218">
+        <v>4.84</v>
+      </c>
+      <c r="D218">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>44526</v>
       </c>
       <c r="B219">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219">
+        <v>4.75</v>
+      </c>
+      <c r="D219">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>44529</v>
       </c>
       <c r="B220">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220">
+        <v>4.75</v>
+      </c>
+      <c r="D220">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>44530</v>
       </c>
       <c r="B221">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221">
+        <v>4.79</v>
+      </c>
+      <c r="D221">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>44531</v>
       </c>
       <c r="B222">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222">
+        <v>4.99</v>
+      </c>
+      <c r="D222">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>44532</v>
       </c>
       <c r="B223">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223">
+        <v>4.97</v>
+      </c>
+      <c r="D223">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>44533</v>
       </c>
       <c r="B224">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C224">
+        <v>4.92</v>
+      </c>
+      <c r="D224">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>44536</v>
       </c>
       <c r="B225">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C225">
+        <v>4.91</v>
+      </c>
+      <c r="D225">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>44537</v>
       </c>
       <c r="B226">
         <v>7.03</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C226">
+        <v>4.83</v>
+      </c>
+      <c r="D226">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>44538</v>
       </c>
       <c r="B227">
         <v>6.81</v>
+      </c>
+      <c r="C227">
+        <v>4.75</v>
+      </c>
+      <c r="D227">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>
@@ -8310,11 +9647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823D0978-A04F-4028-B369-444969E3D1AC}">
-  <dimension ref="A1:B227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823D0978-A04F-4028-B369-444969E3D1AC}">
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -8322,1825 +9659,3186 @@
     <col min="1" max="1" width="11.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44200</v>
       </c>
       <c r="B2">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <v>5.9</v>
+      </c>
+      <c r="D2">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44201</v>
       </c>
       <c r="B3">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>5.82</v>
+      </c>
+      <c r="D3">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44202</v>
       </c>
       <c r="B4">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4">
+        <v>6.3</v>
+      </c>
+      <c r="D4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44203</v>
       </c>
       <c r="B5">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <v>6.1</v>
+      </c>
+      <c r="D5">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44204</v>
       </c>
       <c r="B6">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>6.32</v>
+      </c>
+      <c r="D6">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44207</v>
       </c>
       <c r="B7">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7">
+        <v>6.09</v>
+      </c>
+      <c r="D7">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44208</v>
       </c>
       <c r="B8">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8">
+        <v>6.07</v>
+      </c>
+      <c r="D8">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44209</v>
       </c>
       <c r="B9">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9">
+        <v>5.91</v>
+      </c>
+      <c r="D9">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44210</v>
       </c>
       <c r="B10">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10">
+        <v>5.89</v>
+      </c>
+      <c r="D10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44211</v>
       </c>
       <c r="B11">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11">
+        <v>5.91</v>
+      </c>
+      <c r="D11">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44214</v>
       </c>
       <c r="B12">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12">
+        <v>6.05</v>
+      </c>
+      <c r="D12">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44215</v>
       </c>
       <c r="B13">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13">
+        <v>6.15</v>
+      </c>
+      <c r="D13">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44216</v>
       </c>
       <c r="B14">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14">
+        <v>6.13</v>
+      </c>
+      <c r="D14">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44217</v>
       </c>
       <c r="B15">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <v>6.13</v>
+      </c>
+      <c r="D15">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44218</v>
       </c>
       <c r="B16">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16">
+        <v>6.03</v>
+      </c>
+      <c r="D16">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44221</v>
       </c>
       <c r="B17">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17">
+        <v>6.06</v>
+      </c>
+      <c r="D17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44222</v>
       </c>
       <c r="B18">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <v>5.89</v>
+      </c>
+      <c r="D18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44223</v>
       </c>
       <c r="B19">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>5.81</v>
+      </c>
+      <c r="D19">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44224</v>
       </c>
       <c r="B20">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>5.73</v>
+      </c>
+      <c r="D20">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44225</v>
       </c>
       <c r="B21">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>5.45</v>
+      </c>
+      <c r="D21">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44228</v>
       </c>
       <c r="B22">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>5.13</v>
+      </c>
+      <c r="D22">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44229</v>
       </c>
       <c r="B23">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>5.09</v>
+      </c>
+      <c r="D23">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44230</v>
       </c>
       <c r="B24">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>5.17</v>
+      </c>
+      <c r="D24">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44231</v>
       </c>
       <c r="B25">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D25">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44232</v>
       </c>
       <c r="B26">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>5.09</v>
+      </c>
+      <c r="D26">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44235</v>
       </c>
       <c r="B27">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>5.23</v>
+      </c>
+      <c r="D27">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44236</v>
       </c>
       <c r="B28">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>5.23</v>
+      </c>
+      <c r="D28">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44237</v>
       </c>
       <c r="B29">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>5.22</v>
+      </c>
+      <c r="D29">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44245</v>
       </c>
       <c r="B30">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>5.57</v>
+      </c>
+      <c r="D30">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44246</v>
       </c>
       <c r="B31">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <v>6.24</v>
+      </c>
+      <c r="D31">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44249</v>
       </c>
       <c r="B32">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <v>6.3</v>
+      </c>
+      <c r="D32">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44250</v>
       </c>
       <c r="B33">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <v>6.2</v>
+      </c>
+      <c r="D33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44251</v>
       </c>
       <c r="B34">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34">
+        <v>6.23</v>
+      </c>
+      <c r="D34">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44252</v>
       </c>
       <c r="B35">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35">
+        <v>6.2</v>
+      </c>
+      <c r="D35">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44253</v>
       </c>
       <c r="B36">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <v>6.06</v>
+      </c>
+      <c r="D36">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44256</v>
       </c>
       <c r="B37">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37">
+        <v>6.39</v>
+      </c>
+      <c r="D37">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44257</v>
       </c>
       <c r="B38">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38">
+        <v>6.24</v>
+      </c>
+      <c r="D38">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44258</v>
       </c>
       <c r="B39">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39">
+        <v>6.18</v>
+      </c>
+      <c r="D39">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44259</v>
       </c>
       <c r="B40">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40">
+        <v>6.15</v>
+      </c>
+      <c r="D40">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44260</v>
       </c>
       <c r="B41">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41">
+        <v>6.28</v>
+      </c>
+      <c r="D41">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44263</v>
       </c>
       <c r="B42">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42">
+        <v>6.25</v>
+      </c>
+      <c r="D42">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44264</v>
       </c>
       <c r="B43">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43">
+        <v>6.11</v>
+      </c>
+      <c r="D43">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44265</v>
       </c>
       <c r="B44">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44">
+        <v>6.02</v>
+      </c>
+      <c r="D44">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44266</v>
       </c>
       <c r="B45">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45">
+        <v>6.05</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44267</v>
       </c>
       <c r="B46">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <v>5.93</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44270</v>
       </c>
       <c r="B47">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47">
+        <v>5.96</v>
+      </c>
+      <c r="D47">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44271</v>
       </c>
       <c r="B48">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48">
+        <v>5.94</v>
+      </c>
+      <c r="D48">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44272</v>
       </c>
       <c r="B49">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49">
+        <v>6.55</v>
+      </c>
+      <c r="D49">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44273</v>
       </c>
       <c r="B50">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50">
+        <v>6.44</v>
+      </c>
+      <c r="D50">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44274</v>
       </c>
       <c r="B51">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51">
+        <v>6.32</v>
+      </c>
+      <c r="D51">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44277</v>
       </c>
       <c r="B52">
         <v>4.9400000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52">
+        <v>6.24</v>
+      </c>
+      <c r="D52">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44278</v>
       </c>
       <c r="B53">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53">
+        <v>6.18</v>
+      </c>
+      <c r="D53">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44279</v>
       </c>
       <c r="B54">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54">
+        <v>6.07</v>
+      </c>
+      <c r="D54">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44280</v>
       </c>
       <c r="B55">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55">
+        <v>6.12</v>
+      </c>
+      <c r="D55">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44281</v>
       </c>
       <c r="B56">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56">
+        <v>5.97</v>
+      </c>
+      <c r="D56">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44284</v>
       </c>
       <c r="B57">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57">
+        <v>5.84</v>
+      </c>
+      <c r="D57">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44285</v>
       </c>
       <c r="B58">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58">
+        <v>5.66</v>
+      </c>
+      <c r="D58">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44286</v>
       </c>
       <c r="B59">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59">
+        <v>5.72</v>
+      </c>
+      <c r="D59">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44287</v>
       </c>
       <c r="B60">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60">
+        <v>5.77</v>
+      </c>
+      <c r="D60">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44288</v>
       </c>
       <c r="B61">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61">
+        <v>5.67</v>
+      </c>
+      <c r="D61">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44292</v>
       </c>
       <c r="B62">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62">
+        <v>5.7</v>
+      </c>
+      <c r="D62">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44293</v>
       </c>
       <c r="B63">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63">
+        <v>5.64</v>
+      </c>
+      <c r="D63">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44294</v>
       </c>
       <c r="B64">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64">
+        <v>5.81</v>
+      </c>
+      <c r="D64">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44295</v>
       </c>
       <c r="B65">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65">
+        <v>5.68</v>
+      </c>
+      <c r="D65">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44298</v>
       </c>
       <c r="B66">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66">
+        <v>5.7</v>
+      </c>
+      <c r="D66">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44299</v>
       </c>
       <c r="B67">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67">
+        <v>5.72</v>
+      </c>
+      <c r="D67">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44300</v>
       </c>
       <c r="B68">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68">
+        <v>5.63</v>
+      </c>
+      <c r="D68">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44301</v>
       </c>
       <c r="B69">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69">
+        <v>5.57</v>
+      </c>
+      <c r="D69">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44302</v>
       </c>
       <c r="B70">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70">
+        <v>5.7</v>
+      </c>
+      <c r="D70">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44305</v>
       </c>
       <c r="B71">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71">
+        <v>5.69</v>
+      </c>
+      <c r="D71">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44306</v>
       </c>
       <c r="B72">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72">
+        <v>5.89</v>
+      </c>
+      <c r="D72">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44307</v>
       </c>
       <c r="B73">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73">
+        <v>5.68</v>
+      </c>
+      <c r="D73">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44308</v>
       </c>
       <c r="B74">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74">
+        <v>5.68</v>
+      </c>
+      <c r="D74">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44309</v>
       </c>
       <c r="B75">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75">
+        <v>5.58</v>
+      </c>
+      <c r="D75">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44312</v>
       </c>
       <c r="B76">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76">
+        <v>5.6</v>
+      </c>
+      <c r="D76">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44313</v>
       </c>
       <c r="B77">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77">
+        <v>5.51</v>
+      </c>
+      <c r="D77">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44314</v>
       </c>
       <c r="B78">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78">
+        <v>5.51</v>
+      </c>
+      <c r="D78">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44315</v>
       </c>
       <c r="B79">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79">
+        <v>5.5</v>
+      </c>
+      <c r="D79">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44316</v>
       </c>
       <c r="B80">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C80">
+        <v>5.4</v>
+      </c>
+      <c r="D80">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44322</v>
       </c>
       <c r="B81">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C81">
+        <v>5.44</v>
+      </c>
+      <c r="D81">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44323</v>
       </c>
       <c r="B82">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C82">
+        <v>5.52</v>
+      </c>
+      <c r="D82">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44326</v>
       </c>
       <c r="B83">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C83">
+        <v>5.74</v>
+      </c>
+      <c r="D83">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44327</v>
       </c>
       <c r="B84">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C84">
+        <v>5.62</v>
+      </c>
+      <c r="D84">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44328</v>
       </c>
       <c r="B85">
         <v>6.42</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C85">
+        <v>5.58</v>
+      </c>
+      <c r="D85">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44329</v>
       </c>
       <c r="B86">
         <v>6.06</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86">
+        <v>5.45</v>
+      </c>
+      <c r="D86">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44330</v>
       </c>
       <c r="B87">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87">
+        <v>5.47</v>
+      </c>
+      <c r="D87">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44333</v>
       </c>
       <c r="B88">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88">
+        <v>5.37</v>
+      </c>
+      <c r="D88">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44334</v>
       </c>
       <c r="B89">
         <v>6.06</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C89">
+        <v>5.51</v>
+      </c>
+      <c r="D89">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44335</v>
       </c>
       <c r="B90">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C90">
+        <v>5.42</v>
+      </c>
+      <c r="D90">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44336</v>
       </c>
       <c r="B91">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C91">
+        <v>5.32</v>
+      </c>
+      <c r="D91">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44337</v>
       </c>
       <c r="B92">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C92">
+        <v>5.31</v>
+      </c>
+      <c r="D92">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44340</v>
       </c>
       <c r="B93">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C93">
+        <v>5.31</v>
+      </c>
+      <c r="D93">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>44341</v>
       </c>
       <c r="B94">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C94">
+        <v>5.32</v>
+      </c>
+      <c r="D94">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>44342</v>
       </c>
       <c r="B95">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C95">
+        <v>5.33</v>
+      </c>
+      <c r="D95">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>44343</v>
       </c>
       <c r="B96">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C96">
+        <v>5.35</v>
+      </c>
+      <c r="D96">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>44344</v>
       </c>
       <c r="B97">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C97">
+        <v>5.29</v>
+      </c>
+      <c r="D97">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>44347</v>
       </c>
       <c r="B98">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C98">
+        <v>5.26</v>
+      </c>
+      <c r="D98">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>44348</v>
       </c>
       <c r="B99">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C99">
+        <v>5.25</v>
+      </c>
+      <c r="D99">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>44349</v>
       </c>
       <c r="B100">
         <v>5.33</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C100">
+        <v>5.18</v>
+      </c>
+      <c r="D100">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>44350</v>
       </c>
       <c r="B101">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C101">
+        <v>5.16</v>
+      </c>
+      <c r="D101">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>44351</v>
       </c>
       <c r="B102">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D102">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>44354</v>
       </c>
       <c r="B103">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C103">
+        <v>5.13</v>
+      </c>
+      <c r="D103">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>44355</v>
       </c>
       <c r="B104">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C104">
+        <v>5.09</v>
+      </c>
+      <c r="D104">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>44356</v>
       </c>
       <c r="B105">
         <v>5.97</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C105">
+        <v>5.24</v>
+      </c>
+      <c r="D105">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>44357</v>
       </c>
       <c r="B106">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C106">
+        <v>5.15</v>
+      </c>
+      <c r="D106">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>44358</v>
       </c>
       <c r="B107">
         <v>6.06</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C107">
+        <v>5.33</v>
+      </c>
+      <c r="D107">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>44362</v>
       </c>
       <c r="B108">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C108">
+        <v>5.12</v>
+      </c>
+      <c r="D108">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>44363</v>
       </c>
       <c r="B109">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C109">
+        <v>4.92</v>
+      </c>
+      <c r="D109">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>44364</v>
       </c>
       <c r="B110">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C110">
+        <v>4.91</v>
+      </c>
+      <c r="D110">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>44365</v>
       </c>
       <c r="B111">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C111">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D111">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>44368</v>
       </c>
       <c r="B112">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C112">
+        <v>5.08</v>
+      </c>
+      <c r="D112">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>44369</v>
       </c>
       <c r="B113">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C113">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D113">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>44370</v>
       </c>
       <c r="B114">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C114">
+        <v>4.99</v>
+      </c>
+      <c r="D114">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>44371</v>
       </c>
       <c r="B115">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C115">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D115">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>44372</v>
       </c>
       <c r="B116">
         <v>5.71</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C116">
+        <v>5.08</v>
+      </c>
+      <c r="D116">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>44375</v>
       </c>
       <c r="B117">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>44376</v>
       </c>
       <c r="B118">
         <v>5.44</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C118">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D118">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>44377</v>
       </c>
       <c r="B119">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C119">
+        <v>4.95</v>
+      </c>
+      <c r="D119">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>44378</v>
       </c>
       <c r="B120">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C120">
+        <v>4.83</v>
+      </c>
+      <c r="D120">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>44379</v>
       </c>
       <c r="B121">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C121">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D121">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>44382</v>
       </c>
       <c r="B122">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C122">
+        <v>4.91</v>
+      </c>
+      <c r="D122">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>44383</v>
       </c>
       <c r="B123">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C123">
+        <v>4.88</v>
+      </c>
+      <c r="D123">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>44384</v>
       </c>
       <c r="B124">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C124">
+        <v>4.88</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>44385</v>
       </c>
       <c r="B125">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C125">
+        <v>4.84</v>
+      </c>
+      <c r="D125">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>44386</v>
       </c>
       <c r="B126">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C126">
+        <v>4.93</v>
+      </c>
+      <c r="D126">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>44389</v>
       </c>
       <c r="B127">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127">
+        <v>5.01</v>
+      </c>
+      <c r="D127">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>44390</v>
       </c>
       <c r="B128">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C128">
+        <v>5.17</v>
+      </c>
+      <c r="D128">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>44391</v>
       </c>
       <c r="B129">
         <v>5.63</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C129">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D129">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>44392</v>
       </c>
       <c r="B130">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>44393</v>
       </c>
       <c r="B131">
         <v>5.93</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C131">
+        <v>5.03</v>
+      </c>
+      <c r="D131">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>44396</v>
       </c>
       <c r="B132">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C132">
+        <v>5.24</v>
+      </c>
+      <c r="D132">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>44397</v>
       </c>
       <c r="B133">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C133">
+        <v>5.23</v>
+      </c>
+      <c r="D133">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>44398</v>
       </c>
       <c r="B134">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134">
+        <v>5.22</v>
+      </c>
+      <c r="D134">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>44399</v>
       </c>
       <c r="B135">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C135">
+        <v>5.31</v>
+      </c>
+      <c r="D135">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>44400</v>
       </c>
       <c r="B136">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C136">
+        <v>5.19</v>
+      </c>
+      <c r="D136">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>44403</v>
       </c>
       <c r="B137">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C137">
+        <v>5.25</v>
+      </c>
+      <c r="D137">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>44404</v>
       </c>
       <c r="B138">
         <v>6.27</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D138">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>44405</v>
       </c>
       <c r="B139">
         <v>6.01</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C139">
+        <v>4.88</v>
+      </c>
+      <c r="D139">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>44406</v>
       </c>
       <c r="B140">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C140">
+        <v>5.18</v>
+      </c>
+      <c r="D140">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>44407</v>
       </c>
       <c r="B141">
         <v>7.08</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C141">
+        <v>5.12</v>
+      </c>
+      <c r="D141">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>44410</v>
       </c>
       <c r="B142">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C142">
+        <v>5.14</v>
+      </c>
+      <c r="D142">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>44411</v>
       </c>
       <c r="B143">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C143">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D143">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>44412</v>
       </c>
       <c r="B144">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C144">
+        <v>5.13</v>
+      </c>
+      <c r="D144">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>44413</v>
       </c>
       <c r="B145">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C145">
+        <v>5.36</v>
+      </c>
+      <c r="D145">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>44414</v>
       </c>
       <c r="B146">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C146">
+        <v>5.25</v>
+      </c>
+      <c r="D146">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>44417</v>
       </c>
       <c r="B147">
         <v>6.77</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C147">
+        <v>5.33</v>
+      </c>
+      <c r="D147">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>44418</v>
       </c>
       <c r="B148">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C148">
+        <v>5.34</v>
+      </c>
+      <c r="D148">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>44419</v>
       </c>
       <c r="B149">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C149">
+        <v>5.41</v>
+      </c>
+      <c r="D149">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>44420</v>
       </c>
       <c r="B150">
         <v>7.82</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C150">
+        <v>5.41</v>
+      </c>
+      <c r="D150">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>44421</v>
       </c>
       <c r="B151">
         <v>7.76</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C151">
+        <v>5.6</v>
+      </c>
+      <c r="D151">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>44424</v>
       </c>
       <c r="B152">
         <v>7.51</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C152">
+        <v>5.57</v>
+      </c>
+      <c r="D152">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>44425</v>
       </c>
       <c r="B153">
         <v>7.31</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C153">
+        <v>5.39</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>44426</v>
       </c>
       <c r="B154">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C154">
+        <v>5.46</v>
+      </c>
+      <c r="D154">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>44427</v>
       </c>
       <c r="B155">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C155">
+        <v>5.3</v>
+      </c>
+      <c r="D155">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>44428</v>
       </c>
       <c r="B156">
         <v>7.43</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C156">
+        <v>5.43</v>
+      </c>
+      <c r="D156">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>44431</v>
       </c>
       <c r="B157">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C157">
+        <v>5.57</v>
+      </c>
+      <c r="D157">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>44432</v>
       </c>
       <c r="B158">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C158">
+        <v>5.68</v>
+      </c>
+      <c r="D158">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>44433</v>
       </c>
       <c r="B159">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C159">
+        <v>5.61</v>
+      </c>
+      <c r="D159">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>44434</v>
       </c>
       <c r="B160">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C160">
+        <v>5.47</v>
+      </c>
+      <c r="D160">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>44435</v>
       </c>
       <c r="B161">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C161">
+        <v>5.38</v>
+      </c>
+      <c r="D161">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>44438</v>
       </c>
       <c r="B162">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C162">
+        <v>5.31</v>
+      </c>
+      <c r="D162">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>44439</v>
       </c>
       <c r="B163">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C163">
+        <v>5.27</v>
+      </c>
+      <c r="D163">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>44440</v>
       </c>
       <c r="B164">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C164">
+        <v>5.46</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>44441</v>
       </c>
       <c r="B165">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C165">
+        <v>5.73</v>
+      </c>
+      <c r="D165">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>44442</v>
       </c>
       <c r="B166">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C166">
+        <v>5.67</v>
+      </c>
+      <c r="D166">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>44445</v>
       </c>
       <c r="B167">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C167">
+        <v>5.66</v>
+      </c>
+      <c r="D167">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>44446</v>
       </c>
       <c r="B168">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C168">
+        <v>5.69</v>
+      </c>
+      <c r="D168">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>44447</v>
       </c>
       <c r="B169">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C169">
+        <v>5.84</v>
+      </c>
+      <c r="D169">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>44448</v>
       </c>
       <c r="B170">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C170">
+        <v>5.77</v>
+      </c>
+      <c r="D170">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>44449</v>
       </c>
       <c r="B171">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C171">
+        <v>5.65</v>
+      </c>
+      <c r="D171">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>44452</v>
       </c>
       <c r="B172">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C172">
+        <v>5.86</v>
+      </c>
+      <c r="D172">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>44453</v>
       </c>
       <c r="B173">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C173">
+        <v>5.8</v>
+      </c>
+      <c r="D173">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>44454</v>
       </c>
       <c r="B174">
         <v>8.89</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C174">
+        <v>5.82</v>
+      </c>
+      <c r="D174">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>44455</v>
       </c>
       <c r="B175">
         <v>9.01</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C175">
+        <v>5.65</v>
+      </c>
+      <c r="D175">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>44456</v>
       </c>
       <c r="B176">
         <v>8.52</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C176">
+        <v>5.7</v>
+      </c>
+      <c r="D176">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>44461</v>
       </c>
       <c r="B177">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C177">
+        <v>5.56</v>
+      </c>
+      <c r="D177">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>44462</v>
       </c>
       <c r="B178">
         <v>8.39</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C178">
+        <v>5.68</v>
+      </c>
+      <c r="D178">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>44463</v>
       </c>
       <c r="B179">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C179">
+        <v>5.41</v>
+      </c>
+      <c r="D179">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>44466</v>
       </c>
       <c r="B180">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C180">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D180">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>44467</v>
       </c>
       <c r="B181">
         <v>7.57</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C181">
+        <v>5.09</v>
+      </c>
+      <c r="D181">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>44468</v>
       </c>
       <c r="B182">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C182">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D182">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>44469</v>
       </c>
       <c r="B183">
         <v>7.32</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C183">
+        <v>4.95</v>
+      </c>
+      <c r="D183">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>44477</v>
       </c>
       <c r="B184">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>44480</v>
       </c>
       <c r="B185">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C185">
+        <v>5.04</v>
+      </c>
+      <c r="D185">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>44481</v>
       </c>
       <c r="B186">
         <v>6.74</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C186">
+        <v>4.95</v>
+      </c>
+      <c r="D186">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>44482</v>
       </c>
       <c r="B187">
         <v>6.61</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C187">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D187">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>44483</v>
       </c>
       <c r="B188">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C188">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D188">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>44484</v>
       </c>
       <c r="B189">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C189">
+        <v>4.91</v>
+      </c>
+      <c r="D189">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>44487</v>
       </c>
       <c r="B190">
         <v>6.59</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C190">
+        <v>4.87</v>
+      </c>
+      <c r="D190">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>44488</v>
       </c>
       <c r="B191">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C191">
+        <v>4.84</v>
+      </c>
+      <c r="D191">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>44489</v>
       </c>
       <c r="B192">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C192">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D192">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>44490</v>
       </c>
       <c r="B193">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C193">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D193">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>44491</v>
       </c>
       <c r="B194">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C194">
+        <v>4.68</v>
+      </c>
+      <c r="D194">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>44494</v>
       </c>
       <c r="B195">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C195">
+        <v>4.59</v>
+      </c>
+      <c r="D195">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>44495</v>
       </c>
       <c r="B196">
         <v>6.06</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C196">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D196">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>44496</v>
       </c>
       <c r="B197">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C197">
+        <v>4.45</v>
+      </c>
+      <c r="D197">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>44497</v>
       </c>
       <c r="B198">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C198">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D198">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>44498</v>
       </c>
       <c r="B199">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C199">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D199">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>44501</v>
       </c>
       <c r="B200">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C200">
+        <v>4.62</v>
+      </c>
+      <c r="D200">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>44502</v>
       </c>
       <c r="B201">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C201">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="D201">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>44503</v>
       </c>
       <c r="B202">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C202">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D202">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>44504</v>
       </c>
       <c r="B203">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C203">
+        <v>4.54</v>
+      </c>
+      <c r="D203">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>44505</v>
       </c>
       <c r="B204">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C204">
+        <v>4.5</v>
+      </c>
+      <c r="D204">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>44508</v>
       </c>
       <c r="B205">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C205">
+        <v>4.63</v>
+      </c>
+      <c r="D205">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>44509</v>
       </c>
       <c r="B206">
         <v>5.33</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C206">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D206">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>44510</v>
       </c>
       <c r="B207">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C207">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D207">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>44511</v>
       </c>
       <c r="B208">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C208">
+        <v>4.88</v>
+      </c>
+      <c r="D208">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>44512</v>
       </c>
       <c r="B209">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C209">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D209">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>44515</v>
       </c>
       <c r="B210">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C210">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D210">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>44516</v>
       </c>
       <c r="B211">
         <v>5.29</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C211">
+        <v>4.93</v>
+      </c>
+      <c r="D211">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>44517</v>
       </c>
       <c r="B212">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C212">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D212">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>44518</v>
       </c>
       <c r="B213">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C213">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D213">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>44519</v>
       </c>
       <c r="B214">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C214">
+        <v>4.93</v>
+      </c>
+      <c r="D214">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>44522</v>
       </c>
       <c r="B215">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C215">
+        <v>4.91</v>
+      </c>
+      <c r="D215">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>44523</v>
       </c>
       <c r="B216">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C216">
+        <v>4.83</v>
+      </c>
+      <c r="D216">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>44524</v>
       </c>
       <c r="B217">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C217">
+        <v>4.8</v>
+      </c>
+      <c r="D217">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>44525</v>
       </c>
       <c r="B218">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C218">
+        <v>4.75</v>
+      </c>
+      <c r="D218">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>44526</v>
       </c>
       <c r="B219">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C219">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D219">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>44529</v>
       </c>
       <c r="B220">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C220">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D220">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>44530</v>
       </c>
       <c r="B221">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C221">
+        <v>4.97</v>
+      </c>
+      <c r="D221">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>44531</v>
       </c>
       <c r="B222">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C222">
+        <v>4.97</v>
+      </c>
+      <c r="D222">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>44532</v>
       </c>
       <c r="B223">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C223">
+        <v>4.91</v>
+      </c>
+      <c r="D223">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>44533</v>
       </c>
       <c r="B224">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C224">
+        <v>4.92</v>
+      </c>
+      <c r="D224">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>44536</v>
       </c>
       <c r="B225">
         <v>6.94</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C225">
+        <v>4.8</v>
+      </c>
+      <c r="D225">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>44537</v>
       </c>
       <c r="B226">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C226">
+        <v>4.72</v>
+      </c>
+      <c r="D226">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>44538</v>
       </c>
       <c r="B227">
         <v>7.1</v>
+      </c>
+      <c r="C227">
+        <v>4.72</v>
+      </c>
+      <c r="D227">
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>